--- a/inputs compound generator/inputs/edar_data.xlsx
+++ b/inputs compound generator/inputs/edar_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsalo\PycharmProjects\traca\inputs compound generator\dist\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsalo\PycharmProjects\traca\inputs compound generator\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F612207A-DECC-4964-8B3A-204FB5645991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D71F9C1-8EB4-4C48-8A86-12D39535CECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7980" yWindow="-11970" windowWidth="14400" windowHeight="8715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1781,8 +1781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3042,7 +3042,7 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">

--- a/inputs compound generator/inputs/edar_data.xlsx
+++ b/inputs compound generator/inputs/edar_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsalo\PycharmProjects\traca\inputs compound generator\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D71F9C1-8EB4-4C48-8A86-12D39535CECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD65FA69-81D5-4A72-B190-A9901BDE4AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7980" yWindow="-11970" windowWidth="14400" windowHeight="8715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="447">
   <si>
     <t>codi_eu</t>
   </si>
@@ -1232,9 +1232,6 @@
   </si>
   <si>
     <t>TERRASSA</t>
-  </si>
-  <si>
-    <t>UF,CL,OTHER</t>
   </si>
   <si>
     <t>ES9082830001010E</t>
@@ -1781,8 +1778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="G109" sqref="G109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3979,9 +3976,6 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>280</v>
-      </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
@@ -4425,19 +4419,16 @@
       <c r="F130" t="s">
         <v>11</v>
       </c>
-      <c r="G130" t="s">
-        <v>404</v>
-      </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
+        <v>404</v>
+      </c>
+      <c r="B131" t="s">
         <v>405</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
         <v>406</v>
-      </c>
-      <c r="C131" t="s">
-        <v>407</v>
       </c>
       <c r="D131">
         <v>7578</v>
@@ -4451,13 +4442,13 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
+        <v>407</v>
+      </c>
+      <c r="B132" t="s">
         <v>408</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>409</v>
-      </c>
-      <c r="C132" t="s">
-        <v>410</v>
       </c>
       <c r="D132">
         <v>14017</v>
@@ -4471,13 +4462,13 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
+        <v>410</v>
+      </c>
+      <c r="B133" t="s">
         <v>411</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" t="s">
         <v>412</v>
-      </c>
-      <c r="C133" t="s">
-        <v>413</v>
       </c>
       <c r="D133">
         <v>12238</v>
@@ -4489,18 +4480,18 @@
         <v>11</v>
       </c>
       <c r="G133" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
+        <v>414</v>
+      </c>
+      <c r="B134" t="s">
         <v>415</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
         <v>416</v>
-      </c>
-      <c r="C134" t="s">
-        <v>417</v>
       </c>
       <c r="D134">
         <v>3305</v>
@@ -4514,13 +4505,13 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
+        <v>417</v>
+      </c>
+      <c r="B135" t="s">
         <v>418</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
         <v>419</v>
-      </c>
-      <c r="C135" t="s">
-        <v>420</v>
       </c>
       <c r="D135">
         <v>12382</v>
@@ -4534,13 +4525,13 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
+        <v>420</v>
+      </c>
+      <c r="B136" t="s">
         <v>421</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136" t="s">
         <v>422</v>
-      </c>
-      <c r="C136" t="s">
-        <v>423</v>
       </c>
       <c r="D136">
         <v>17122</v>
@@ -4554,13 +4545,13 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
+        <v>423</v>
+      </c>
+      <c r="B137" t="s">
         <v>424</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" t="s">
         <v>425</v>
-      </c>
-      <c r="C137" t="s">
-        <v>426</v>
       </c>
       <c r="D137">
         <v>24511</v>
@@ -4574,13 +4565,13 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
+        <v>426</v>
+      </c>
+      <c r="B138" t="s">
         <v>427</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" t="s">
         <v>428</v>
-      </c>
-      <c r="C138" t="s">
-        <v>429</v>
       </c>
       <c r="D138">
         <v>13217</v>
@@ -4594,13 +4585,13 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
+        <v>429</v>
+      </c>
+      <c r="B139" t="s">
         <v>430</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
         <v>431</v>
-      </c>
-      <c r="C139" t="s">
-        <v>432</v>
       </c>
       <c r="D139">
         <v>44590</v>
@@ -4614,13 +4605,13 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
+        <v>432</v>
+      </c>
+      <c r="B140" t="s">
         <v>433</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C140" t="s">
         <v>434</v>
-      </c>
-      <c r="C140" t="s">
-        <v>435</v>
       </c>
       <c r="D140">
         <v>4955</v>
@@ -4634,13 +4625,13 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
+        <v>435</v>
+      </c>
+      <c r="B141" t="s">
         <v>436</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C141" t="s">
         <v>437</v>
-      </c>
-      <c r="C141" t="s">
-        <v>438</v>
       </c>
       <c r="D141">
         <v>52177</v>
@@ -4654,13 +4645,13 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
+        <v>438</v>
+      </c>
+      <c r="B142" t="s">
         <v>439</v>
       </c>
-      <c r="B142" t="s">
+      <c r="C142" t="s">
         <v>440</v>
-      </c>
-      <c r="C142" t="s">
-        <v>441</v>
       </c>
       <c r="D142">
         <v>3820</v>
@@ -4674,13 +4665,13 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
+        <v>441</v>
+      </c>
+      <c r="B143" t="s">
         <v>442</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C143" t="s">
         <v>443</v>
-      </c>
-      <c r="C143" t="s">
-        <v>444</v>
       </c>
       <c r="D143">
         <v>10032</v>
@@ -4694,13 +4685,13 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
+        <v>444</v>
+      </c>
+      <c r="B144" t="s">
         <v>445</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" t="s">
         <v>446</v>
-      </c>
-      <c r="C144" t="s">
-        <v>447</v>
       </c>
       <c r="D144">
         <v>2956</v>

--- a/inputs compound generator/inputs/edar_data.xlsx
+++ b/inputs compound generator/inputs/edar_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsalo\PycharmProjects\traca\inputs compound generator\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B73103-FBF5-4B8C-9942-31ADA1CA667B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3BF7C3-5039-48A8-AF69-E1AF33279D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="451">
   <si>
     <t>codi_eu</t>
   </si>
@@ -1361,6 +1361,18 @@
   </si>
   <si>
     <t>VILOBÍ D'ONYAR</t>
+  </si>
+  <si>
+    <t>O3,SF,UV</t>
+  </si>
+  <si>
+    <t>O3,SF</t>
+  </si>
+  <si>
+    <t>GAC</t>
+  </si>
+  <si>
+    <t>SF,UV</t>
   </si>
 </sst>
 </file>
@@ -1777,8 +1789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="G136" sqref="G136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1833,6 +1845,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
+      <c r="G2" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -2456,6 +2471,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
+      <c r="G33" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
@@ -2677,7 +2695,7 @@
         <v>15</v>
       </c>
       <c r="G44" t="s">
-        <v>413</v>
+        <v>448</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -2800,6 +2818,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
+      <c r="G50" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
@@ -2940,6 +2961,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
+      <c r="G57" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
@@ -3043,6 +3067,9 @@
       <c r="F62" t="s">
         <v>15</v>
       </c>
+      <c r="G62" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
@@ -3735,6 +3762,9 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
+      <c r="G96" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
@@ -3978,6 +4008,9 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
+      <c r="G108" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
@@ -4421,6 +4454,9 @@
       <c r="F130" t="s">
         <v>11</v>
       </c>
+      <c r="G130" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
@@ -4523,6 +4559,9 @@
       </c>
       <c r="F135" t="s">
         <v>11</v>
+      </c>
+      <c r="G135" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">

--- a/inputs compound generator/inputs/edar_data.xlsx
+++ b/inputs compound generator/inputs/edar_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsalo\PycharmProjects\traca\inputs compound generator\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3BF7C3-5039-48A8-AF69-E1AF33279D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447A4059-D731-414E-AC9E-4BC429083BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5625" yWindow="-21720" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="451">
   <si>
     <t>codi_eu</t>
   </si>
@@ -1787,10 +1787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G144"/>
+  <dimension ref="A1:G154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="G136" sqref="G136"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="A145" sqref="A145:F146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4560,9 +4560,6 @@
       <c r="F135" t="s">
         <v>11</v>
       </c>
-      <c r="G135" t="s">
-        <v>449</v>
-      </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
@@ -4743,6 +4740,9 @@
       <c r="F144" t="s">
         <v>19</v>
       </c>
+    </row>
+    <row r="154" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D154" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inputs compound generator/inputs/edar_data.xlsx
+++ b/inputs compound generator/inputs/edar_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsalo\PycharmProjects\traca\inputs compound generator\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3BF7C3-5039-48A8-AF69-E1AF33279D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7B5E5D-AE94-45B4-BBCC-E8EC658C67A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="447">
   <si>
     <t>codi_eu</t>
   </si>
@@ -1361,18 +1361,6 @@
   </si>
   <si>
     <t>VILOBÍ D'ONYAR</t>
-  </si>
-  <si>
-    <t>O3,SF,UV</t>
-  </si>
-  <si>
-    <t>O3,SF</t>
-  </si>
-  <si>
-    <t>GAC</t>
-  </si>
-  <si>
-    <t>SF,UV</t>
   </si>
 </sst>
 </file>
@@ -1789,8 +1777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="G136" sqref="G136"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1845,9 +1833,6 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
-        <v>447</v>
-      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -2452,7 +2437,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>105</v>
       </c>
@@ -2471,11 +2456,8 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>108</v>
       </c>
@@ -2495,7 +2477,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>111</v>
       </c>
@@ -2515,7 +2497,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>114</v>
       </c>
@@ -2535,7 +2517,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>117</v>
       </c>
@@ -2555,7 +2537,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -2575,7 +2557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>123</v>
       </c>
@@ -2595,7 +2577,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>126</v>
       </c>
@@ -2615,7 +2597,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>129</v>
       </c>
@@ -2635,7 +2617,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>132</v>
       </c>
@@ -2655,7 +2637,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>135</v>
       </c>
@@ -2675,7 +2657,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>138</v>
       </c>
@@ -2694,11 +2676,8 @@
       <c r="F44" t="s">
         <v>15</v>
       </c>
-      <c r="G44" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>141</v>
       </c>
@@ -2718,7 +2697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>144</v>
       </c>
@@ -2738,7 +2717,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>147</v>
       </c>
@@ -2758,7 +2737,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>150</v>
       </c>
@@ -2777,7 +2756,6 @@
       <c r="F48" t="s">
         <v>19</v>
       </c>
-      <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
@@ -2818,9 +2796,6 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>449</v>
-      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
@@ -2961,9 +2936,6 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>450</v>
-      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
@@ -3067,9 +3039,6 @@
       <c r="F62" t="s">
         <v>15</v>
       </c>
-      <c r="G62" t="s">
-        <v>447</v>
-      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
@@ -3762,9 +3731,6 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
-        <v>448</v>
-      </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
@@ -4008,9 +3974,6 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>449</v>
-      </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
@@ -4454,9 +4417,6 @@
       <c r="F130" t="s">
         <v>11</v>
       </c>
-      <c r="G130" t="s">
-        <v>449</v>
-      </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
@@ -4559,9 +4519,6 @@
       </c>
       <c r="F135" t="s">
         <v>11</v>
-      </c>
-      <c r="G135" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
